--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3605325-4FA6-4D85-BA42-9550A7364DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7380" tabRatio="647" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="647" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Э 11-22" sheetId="14" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'ТМ 11-22'!$A$1:$N$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Э 11-22'!$A$1:$N$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -349,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -754,6 +755,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,15 +806,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 4" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="131">
     <dxf>
       <font>
         <color theme="0"/>
@@ -996,6 +997,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1076,6 +1087,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1096,6 +1117,46 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1176,6 +1237,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1196,6 +1267,46 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1236,6 +1347,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1266,6 +1387,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1286,6 +1417,46 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1306,6 +1477,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1316,6 +1497,36 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1336,6 +1547,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1356,6 +1577,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1376,6 +1607,36 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1426,6 +1687,26 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1446,6 +1727,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1466,6 +1757,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1486,6 +1787,36 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1536,6 +1867,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1556,6 +1897,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1576,6 +1927,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1596,6 +1957,36 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
@@ -1626,6 +2017,16 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1696,16 +2097,6 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1718,696 +2109,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2510,6 +2211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2545,6 +2263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2720,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2743,20 +2478,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>76</v>
       </c>
@@ -2765,110 +2500,110 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
@@ -2878,10 +2613,10 @@
       <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
@@ -3124,7 +2859,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -3160,7 +2895,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -3475,77 +3210,77 @@
     <mergeCell ref="K4:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D25:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23 E24:K24 M24:O24">
-    <cfRule type="cellIs" dxfId="156" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="155" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="153" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:P82 O23:P23 E24:K24 M24:P24">
-    <cfRule type="cellIs" dxfId="151" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E15:K23">
-    <cfRule type="cellIs" dxfId="150" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E15:K23">
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -3554,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3577,20 +3312,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>77</v>
       </c>
@@ -3599,110 +3334,110 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
@@ -3712,10 +3447,10 @@
       <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
@@ -3958,7 +3693,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -3994,7 +3729,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -4299,92 +4034,92 @@
     <mergeCell ref="K4:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D24:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23">
-    <cfRule type="cellIs" dxfId="142" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="141" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="140" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="139" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="138" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:P82 O23:P23">
-    <cfRule type="cellIs" dxfId="137" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="135" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="134" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="133" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="132" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="131" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="130" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -4393,7 +4128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4416,20 +4151,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>86</v>
       </c>
@@ -4438,110 +4173,110 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="42" t="s">
         <v>8</v>
       </c>
@@ -4551,10 +4286,10 @@
       <c r="H7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="43"/>
       <c r="N7" s="5"/>
     </row>
@@ -4797,7 +4532,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -4833,7 +4568,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -5138,97 +4873,97 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D24:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23">
-    <cfRule type="cellIs" dxfId="119" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="118" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="117" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="116" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="115" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:P82 O23:P23">
-    <cfRule type="cellIs" dxfId="114" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="110" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -5237,7 +4972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5260,20 +4995,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>85</v>
       </c>
@@ -5282,110 +5017,110 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
@@ -5395,10 +5130,10 @@
       <c r="H7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="27"/>
       <c r="N7" s="5"/>
     </row>
@@ -5641,7 +5376,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -5677,7 +5412,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -5982,97 +5717,97 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D24:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23">
-    <cfRule type="cellIs" dxfId="93" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="92" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:P82 O23:P23">
-    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="87" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -6081,7 +5816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6104,20 +5839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>78</v>
       </c>
@@ -6126,28 +5861,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>73</v>
       </c>
@@ -6156,83 +5891,83 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
@@ -6242,10 +5977,10 @@
       <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
@@ -6486,7 +6221,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -6522,7 +6257,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -6833,82 +6568,82 @@
     <mergeCell ref="K4:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D24:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23">
-    <cfRule type="cellIs" dxfId="77" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:P82 O23:P23">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -6917,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6940,20 +6675,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>75</v>
       </c>
@@ -6962,28 +6697,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
@@ -6992,83 +6727,83 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
@@ -7078,10 +6813,10 @@
       <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
@@ -7322,7 +7057,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -7358,7 +7093,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -7664,82 +7399,82 @@
     <mergeCell ref="K4:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D24:O30 D32:O33 D35:O37 D39:K82 L38:O82 O23">
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="63" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:P82 O23:P23">
-    <cfRule type="cellIs" dxfId="61" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="39" max="16383" man="1"/>
     <brk id="70" max="16383" man="1"/>
@@ -7748,7 +7483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7771,20 +7506,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="10" t="s">
         <v>96</v>
       </c>
@@ -7793,28 +7528,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2">
         <v>25</v>
       </c>
@@ -7823,83 +7558,83 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
@@ -7909,10 +7644,10 @@
       <c r="H7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
@@ -8153,7 +7888,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -8189,7 +7924,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -8494,82 +8229,82 @@
     <mergeCell ref="K4:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R23:R24 P23:P56 C41 C46 P61:P71 C34:O34 C31:O31 C38:K38 D32:O33 D35:O37 D39:K82 L38:O82 O23 D24:O30">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76:P82 E62:P62 E80:O80 N76:O76 M71:P71">
-    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:P23 D24:P82">
-    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="14" max="13" man="1"/>
     <brk id="39" max="16383" man="1"/>
@@ -8582,14 +8317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8604,135 +8339,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="25" t="s">
         <v>94</v>
       </c>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="3"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
@@ -8742,10 +8477,10 @@
       <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="19"/>
       <c r="N7" s="5"/>
     </row>
@@ -8986,7 +8721,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="24"/>
-      <c r="M14" s="81">
+      <c r="M14" s="65">
         <v>0.75</v>
       </c>
       <c r="N14" s="5"/>
@@ -9022,7 +8757,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81">
+      <c r="M15" s="65">
         <v>0.25</v>
       </c>
       <c r="N15" s="5"/>
@@ -9356,57 +9091,57 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:N25 E24:N24">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:N25 E24:N24">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 E9:K13 E16:K23">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:K15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9416,11 +9151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9431,123 +9166,123 @@
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="76" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="77" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="78"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:14" ht="141" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="L4" s="79"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:16" ht="141" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="56" t="s">
         <v>8</v>
       </c>
@@ -9557,12 +9292,12 @@
       <c r="H7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -9598,7 +9333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -9627,8 +9362,16 @@
         <v>40</v>
       </c>
       <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f>SUM(I9+J9)</f>
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="O9:P24" si="0">SUM(K9+L9)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
@@ -9657,8 +9400,16 @@
         <v>60</v>
       </c>
       <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" ref="N10:N24" si="1">SUM(I10+J10)</f>
+        <v>57</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -9693,8 +9444,16 @@
       <c r="L11" s="24">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -9723,8 +9482,16 @@
         <v>60</v>
       </c>
       <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -9753,8 +9520,16 @@
         <v>80</v>
       </c>
       <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>41</v>
       </c>
@@ -9783,8 +9558,16 @@
         <v>20</v>
       </c>
       <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>42</v>
       </c>
@@ -9797,24 +9580,30 @@
       <c r="D15" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11">
-        <v>48</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="21"/>
       <c r="I15" s="11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L15" s="24"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="M15" s="65"/>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>42</v>
       </c>
@@ -9827,24 +9616,28 @@
       <c r="D16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="11">
-        <v>22</v>
-      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="21"/>
       <c r="I16" s="11">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11">
-        <v>11</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="65"/>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -9857,22 +9650,28 @@
       <c r="D17" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="59">
-        <v>48</v>
-      </c>
+      <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="60"/>
       <c r="H17" s="61"/>
       <c r="I17" s="59">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L17" s="62"/>
-    </row>
-    <row r="18" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
@@ -9907,8 +9706,16 @@
       <c r="L18" s="24">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
@@ -9937,8 +9744,16 @@
         <v>40</v>
       </c>
       <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>81</v>
       </c>
@@ -9965,8 +9780,16 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>46</v>
       </c>
@@ -9998,8 +9821,16 @@
       <c r="M21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
@@ -10034,8 +9865,16 @@
       <c r="L22" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>48</v>
       </c>
@@ -10069,8 +9908,16 @@
       <c r="M23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>54</v>
       </c>
@@ -10099,11 +9946,27 @@
         <v>20</v>
       </c>
       <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J25">
         <f>SUM(I9:J24)</f>
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="N25">
+        <f>SUM(N9:N24)</f>
+        <v>684</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="O25:P25" si="2">SUM(P9:P24)</f>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -10123,22 +9986,22 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D21:K24 E9:K14 E17:K20">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 E9:K14 E17:K24">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K20">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K20">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
